--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1104.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1104.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.712870192231569</v>
+        <v>1.175829768180847</v>
       </c>
       <c r="B1">
-        <v>1.022438992327885</v>
+        <v>2.408564567565918</v>
       </c>
       <c r="C1">
-        <v>1.980180813832743</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.343636751174927</v>
       </c>
       <c r="E1">
-        <v>1.92662596144256</v>
+        <v>1.206317543983459</v>
       </c>
     </row>
   </sheetData>
